--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/L1cam-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/L1cam-Itgav.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.495339</v>
+        <v>16.9075355</v>
       </c>
       <c r="H2">
-        <v>8.990678000000001</v>
+        <v>33.815071</v>
       </c>
       <c r="I2">
-        <v>0.1274106381683396</v>
+        <v>0.2093814122600371</v>
       </c>
       <c r="J2">
-        <v>0.09709078547908703</v>
+        <v>0.160920589855456</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.989415</v>
+        <v>20.574342</v>
       </c>
       <c r="N2">
-        <v>29.97883</v>
+        <v>41.148684</v>
       </c>
       <c r="O2">
-        <v>0.05547446260572933</v>
+        <v>0.07442291871210138</v>
       </c>
       <c r="P2">
-        <v>0.03893791130463959</v>
+        <v>0.05295769307665528</v>
       </c>
       <c r="Q2">
-        <v>67.38250183668501</v>
+        <v>347.861417754141</v>
       </c>
       <c r="R2">
-        <v>269.53000734674</v>
+        <v>1391.445671016564</v>
       </c>
       <c r="S2">
-        <v>0.007068036682641663</v>
+        <v>0.01558277582445373</v>
       </c>
       <c r="T2">
-        <v>0.00378051239348248</v>
+        <v>0.008521983207279565</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.495339</v>
+        <v>16.9075355</v>
       </c>
       <c r="H3">
-        <v>8.990678000000001</v>
+        <v>33.815071</v>
       </c>
       <c r="I3">
-        <v>0.1274106381683396</v>
+        <v>0.2093814122600371</v>
       </c>
       <c r="J3">
-        <v>0.09709078547908703</v>
+        <v>0.160920589855456</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>174.766479</v>
       </c>
       <c r="O3">
-        <v>0.2155982850569436</v>
+        <v>0.2107257583291067</v>
       </c>
       <c r="P3">
-        <v>0.2269949046819425</v>
+        <v>0.2249216416002446</v>
       </c>
       <c r="Q3">
-        <v>261.878189647127</v>
+        <v>984.9568159675016</v>
       </c>
       <c r="R3">
-        <v>1571.269137882762</v>
+        <v>5909.74089580501</v>
       </c>
       <c r="S3">
-        <v>0.02746951508710477</v>
+        <v>0.04412205687851564</v>
       </c>
       <c r="T3">
-        <v>0.02203911359532029</v>
+        <v>0.03619452323756883</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.495339</v>
+        <v>16.9075355</v>
       </c>
       <c r="H4">
-        <v>8.990678000000001</v>
+        <v>33.815071</v>
       </c>
       <c r="I4">
-        <v>0.1274106381683396</v>
+        <v>0.2093814122600371</v>
       </c>
       <c r="J4">
-        <v>0.09709078547908703</v>
+        <v>0.160920589855456</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>80.178917</v>
+        <v>59.53576899999999</v>
       </c>
       <c r="N4">
-        <v>240.536751</v>
+        <v>178.607307</v>
       </c>
       <c r="O4">
-        <v>0.2967348847759819</v>
+        <v>0.2153568603433074</v>
       </c>
       <c r="P4">
-        <v>0.3124204205415681</v>
+        <v>0.2298647253300724</v>
       </c>
       <c r="Q4">
-        <v>360.431412567863</v>
+        <v>1006.603127887299</v>
       </c>
       <c r="R4">
-        <v>2162.588475407178</v>
+        <v>6039.618767323797</v>
       </c>
       <c r="S4">
-        <v>0.03780718103611656</v>
+        <v>0.04509172355856928</v>
       </c>
       <c r="T4">
-        <v>0.03033314403008754</v>
+        <v>0.03698996718707762</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.495339</v>
+        <v>16.9075355</v>
       </c>
       <c r="H5">
-        <v>8.990678000000001</v>
+        <v>33.815071</v>
       </c>
       <c r="I5">
-        <v>0.1274106381683396</v>
+        <v>0.2093814122600371</v>
       </c>
       <c r="J5">
-        <v>0.09709078547908703</v>
+        <v>0.160920589855456</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>25.708558</v>
+        <v>31.770234</v>
       </c>
       <c r="N5">
-        <v>51.417116</v>
+        <v>63.540468</v>
       </c>
       <c r="O5">
-        <v>0.09514503664207198</v>
+        <v>0.1149214658940947</v>
       </c>
       <c r="P5">
-        <v>0.0667829632560165</v>
+        <v>0.08177555817559162</v>
       </c>
       <c r="Q5">
-        <v>115.568683411162</v>
+        <v>537.1563591983071</v>
       </c>
       <c r="R5">
-        <v>462.2747336446481</v>
+        <v>2148.625436793228</v>
       </c>
       <c r="S5">
-        <v>0.01212248983711644</v>
+        <v>0.02406241882789923</v>
       </c>
       <c r="T5">
-        <v>0.00648401035914765</v>
+        <v>0.01315937105737536</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.495339</v>
+        <v>16.9075355</v>
       </c>
       <c r="H6">
-        <v>8.990678000000001</v>
+        <v>33.815071</v>
       </c>
       <c r="I6">
-        <v>0.1274106381683396</v>
+        <v>0.2093814122600371</v>
       </c>
       <c r="J6">
-        <v>0.09709078547908703</v>
+        <v>0.160920589855456</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.726012</v>
+        <v>31.46548433333334</v>
       </c>
       <c r="N6">
-        <v>35.178036</v>
+        <v>94.39645300000001</v>
       </c>
       <c r="O6">
-        <v>0.04339690469630291</v>
+        <v>0.1138191045320704</v>
       </c>
       <c r="P6">
-        <v>0.04569088405516221</v>
+        <v>0.121486713536183</v>
       </c>
       <c r="Q6">
-        <v>52.712399058068</v>
+        <v>532.0037933905272</v>
       </c>
       <c r="R6">
-        <v>316.274394348408</v>
+        <v>3192.022760343164</v>
       </c>
       <c r="S6">
-        <v>0.005529227321886566</v>
+        <v>0.02383160484909769</v>
       </c>
       <c r="T6">
-        <v>0.004436163822149592</v>
+        <v>0.01954971360184337</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.495339</v>
+        <v>16.9075355</v>
       </c>
       <c r="H7">
-        <v>8.990678000000001</v>
+        <v>33.815071</v>
       </c>
       <c r="I7">
-        <v>0.1274106381683396</v>
+        <v>0.2093814122600371</v>
       </c>
       <c r="J7">
-        <v>0.09709078547908703</v>
+        <v>0.160920589855456</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>79.34548433333335</v>
+        <v>74.85037233333333</v>
       </c>
       <c r="N7">
-        <v>238.036453</v>
+        <v>224.551117</v>
       </c>
       <c r="O7">
-        <v>0.2936504262229702</v>
+        <v>0.2707538921893195</v>
       </c>
       <c r="P7">
-        <v>0.3091729161606711</v>
+        <v>0.2889936682812531</v>
       </c>
       <c r="Q7">
-        <v>356.6848501975224</v>
+        <v>1265.535327414051</v>
       </c>
       <c r="R7">
-        <v>2140.109101185134</v>
+        <v>7593.211964484307</v>
       </c>
       <c r="S7">
-        <v>0.03741418820347354</v>
+        <v>0.05669083232150154</v>
       </c>
       <c r="T7">
-        <v>0.03001784127889948</v>
+        <v>0.04650503156431123</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>1.389289</v>
       </c>
       <c r="I8">
-        <v>0.01312546158663854</v>
+        <v>0.005734943705176796</v>
       </c>
       <c r="J8">
-        <v>0.01500300202804008</v>
+        <v>0.006611407243820265</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>14.989415</v>
+        <v>20.574342</v>
       </c>
       <c r="N8">
-        <v>29.97883</v>
+        <v>41.148684</v>
       </c>
       <c r="O8">
-        <v>0.05547446260572933</v>
+        <v>0.07442291871210138</v>
       </c>
       <c r="P8">
-        <v>0.03893791130463959</v>
+        <v>0.05295769307665528</v>
       </c>
       <c r="Q8">
-        <v>6.941543125311667</v>
+        <v>9.527902340946001</v>
       </c>
       <c r="R8">
-        <v>41.64925875187</v>
+        <v>57.167414045676</v>
       </c>
       <c r="S8">
-        <v>0.0007281279279709163</v>
+        <v>0.0004268112491888502</v>
       </c>
       <c r="T8">
-        <v>0.0005841855622711526</v>
+        <v>0.000350124875623009</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>1.389289</v>
       </c>
       <c r="I9">
-        <v>0.01312546158663854</v>
+        <v>0.005734943705176796</v>
       </c>
       <c r="J9">
-        <v>0.01500300202804008</v>
+        <v>0.006611407243820265</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>174.766479</v>
       </c>
       <c r="O9">
-        <v>0.2155982850569436</v>
+        <v>0.2107257583291067</v>
       </c>
       <c r="P9">
-        <v>0.2269949046819425</v>
+        <v>0.2249216416002446</v>
       </c>
       <c r="Q9">
         <v>26.97790520482567</v>
@@ -1013,10 +1013,10 @@
         <v>242.801146843431</v>
       </c>
       <c r="S9">
-        <v>0.002829827008660059</v>
+        <v>0.001208500361248118</v>
       </c>
       <c r="T9">
-        <v>0.003405605015297948</v>
+        <v>0.001487048570567803</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>1.389289</v>
       </c>
       <c r="I10">
-        <v>0.01312546158663854</v>
+        <v>0.005734943705176796</v>
       </c>
       <c r="J10">
-        <v>0.01500300202804008</v>
+        <v>0.006611407243820265</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>80.178917</v>
+        <v>59.53576899999999</v>
       </c>
       <c r="N10">
-        <v>240.536751</v>
+        <v>178.607307</v>
       </c>
       <c r="O10">
-        <v>0.2967348847759819</v>
+        <v>0.2153568603433074</v>
       </c>
       <c r="P10">
-        <v>0.3124204205415681</v>
+        <v>0.2298647253300724</v>
       </c>
       <c r="Q10">
-        <v>37.13056247333767</v>
+        <v>27.57079632608033</v>
       </c>
       <c r="R10">
-        <v>334.175062260039</v>
+        <v>248.137166934723</v>
       </c>
       <c r="S10">
-        <v>0.003894782331542764</v>
+        <v>0.001235059470592489</v>
       </c>
       <c r="T10">
-        <v>0.004687244202986281</v>
+        <v>0.001519729310145996</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>1.389289</v>
       </c>
       <c r="I11">
-        <v>0.01312546158663854</v>
+        <v>0.005734943705176796</v>
       </c>
       <c r="J11">
-        <v>0.01500300202804008</v>
+        <v>0.006611407243820265</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>25.708558</v>
+        <v>31.770234</v>
       </c>
       <c r="N11">
-        <v>51.417116</v>
+        <v>63.540468</v>
       </c>
       <c r="O11">
-        <v>0.09514503664207198</v>
+        <v>0.1149214658940947</v>
       </c>
       <c r="P11">
-        <v>0.0667829632560165</v>
+        <v>0.08177555817559162</v>
       </c>
       <c r="Q11">
-        <v>11.90553894508733</v>
+        <v>14.712678874542</v>
       </c>
       <c r="R11">
-        <v>71.433233670524</v>
+        <v>88.276073247252</v>
       </c>
       <c r="S11">
-        <v>0.001248822523604832</v>
+        <v>0.000659068137419028</v>
       </c>
       <c r="T11">
-        <v>0.001001944933168542</v>
+        <v>0.000540651517689552</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>1.389289</v>
       </c>
       <c r="I12">
-        <v>0.01312546158663854</v>
+        <v>0.005734943705176796</v>
       </c>
       <c r="J12">
-        <v>0.01500300202804008</v>
+        <v>0.006611407243820265</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.726012</v>
+        <v>31.46548433333334</v>
       </c>
       <c r="N12">
-        <v>35.178036</v>
+        <v>94.39645300000001</v>
       </c>
       <c r="O12">
-        <v>0.04339690469630291</v>
+        <v>0.1138191045320704</v>
       </c>
       <c r="P12">
-        <v>0.04569088405516221</v>
+        <v>0.121486713536183</v>
       </c>
       <c r="Q12">
-        <v>5.430273161822666</v>
+        <v>14.57155042132411</v>
       </c>
       <c r="R12">
-        <v>48.872458456404</v>
+        <v>131.143953791917</v>
       </c>
       <c r="S12">
-        <v>0.0005696044055703374</v>
+        <v>0.0006527461570650569</v>
       </c>
       <c r="T12">
-        <v>0.0006855004261425428</v>
+        <v>0.0008031981379010375</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>1.389289</v>
       </c>
       <c r="I13">
-        <v>0.01312546158663854</v>
+        <v>0.005734943705176796</v>
       </c>
       <c r="J13">
-        <v>0.01500300202804008</v>
+        <v>0.006611407243820265</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>79.34548433333335</v>
+        <v>74.85037233333333</v>
       </c>
       <c r="N13">
-        <v>238.036453</v>
+        <v>224.551117</v>
       </c>
       <c r="O13">
-        <v>0.2936504262229702</v>
+        <v>0.2707538921893195</v>
       </c>
       <c r="P13">
-        <v>0.3091729161606711</v>
+        <v>0.2889936682812531</v>
       </c>
       <c r="Q13">
-        <v>36.74460286132412</v>
+        <v>34.66293297620144</v>
       </c>
       <c r="R13">
-        <v>330.701425751917</v>
+        <v>311.9663967858129</v>
       </c>
       <c r="S13">
-        <v>0.003854297389289629</v>
+        <v>0.001552758329663255</v>
       </c>
       <c r="T13">
-        <v>0.004638521888173614</v>
+        <v>0.001910654831892868</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>6.798299666666668</v>
+        <v>7.466036666666668</v>
       </c>
       <c r="H14">
-        <v>20.394899</v>
+        <v>22.39811</v>
       </c>
       <c r="I14">
-        <v>0.1926830655017586</v>
+        <v>0.09245873245405202</v>
       </c>
       <c r="J14">
-        <v>0.2202455436260365</v>
+        <v>0.106589073045193</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>14.989415</v>
+        <v>20.574342</v>
       </c>
       <c r="N14">
-        <v>29.97883</v>
+        <v>41.148684</v>
       </c>
       <c r="O14">
-        <v>0.05547446260572933</v>
+        <v>0.07442291871210138</v>
       </c>
       <c r="P14">
-        <v>0.03893791130463959</v>
+        <v>0.05295769307665528</v>
       </c>
       <c r="Q14">
-        <v>101.9025349980284</v>
+        <v>153.60879176454</v>
       </c>
       <c r="R14">
-        <v>611.4152099881701</v>
+        <v>921.6527505872401</v>
       </c>
       <c r="S14">
-        <v>0.01068898951193461</v>
+        <v>0.006881048729651843</v>
       </c>
       <c r="T14">
-        <v>0.008575901442952739</v>
+        <v>0.005644711415652521</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>6.798299666666668</v>
+        <v>7.466036666666668</v>
       </c>
       <c r="H15">
-        <v>20.394899</v>
+        <v>22.39811</v>
       </c>
       <c r="I15">
-        <v>0.1926830655017586</v>
+        <v>0.09245873245405202</v>
       </c>
       <c r="J15">
-        <v>0.2202455436260365</v>
+        <v>0.106589073045193</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>174.766479</v>
       </c>
       <c r="O15">
-        <v>0.2155982850569436</v>
+        <v>0.2107257583291067</v>
       </c>
       <c r="P15">
-        <v>0.2269949046819425</v>
+        <v>0.2249216416002446</v>
       </c>
       <c r="Q15">
-        <v>396.0382986434024</v>
+        <v>434.9376467727434</v>
       </c>
       <c r="R15">
-        <v>3564.344687790621</v>
+        <v>3914.438820954691</v>
       </c>
       <c r="S15">
-        <v>0.0415421384816939</v>
+        <v>0.0194834365105281</v>
       </c>
       <c r="T15">
-        <v>0.04999461618201476</v>
+        <v>0.02397418928597319</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>6.798299666666668</v>
+        <v>7.466036666666668</v>
       </c>
       <c r="H16">
-        <v>20.394899</v>
+        <v>22.39811</v>
       </c>
       <c r="I16">
-        <v>0.1926830655017586</v>
+        <v>0.09245873245405202</v>
       </c>
       <c r="J16">
-        <v>0.2202455436260365</v>
+        <v>0.106589073045193</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>80.178917</v>
+        <v>59.53576899999999</v>
       </c>
       <c r="N16">
-        <v>240.536751</v>
+        <v>178.607307</v>
       </c>
       <c r="O16">
-        <v>0.2967348847759819</v>
+        <v>0.2153568603433074</v>
       </c>
       <c r="P16">
-        <v>0.3124204205415681</v>
+        <v>0.2298647253300724</v>
       </c>
       <c r="Q16">
-        <v>545.0803047147945</v>
+        <v>444.4962343321967</v>
       </c>
       <c r="R16">
-        <v>4905.72274243315</v>
+        <v>4000.46610898977</v>
       </c>
       <c r="S16">
-        <v>0.05717578723994733</v>
+        <v>0.01991162233262651</v>
       </c>
       <c r="T16">
-        <v>0.06880920536205261</v>
+        <v>0.02450106799872031</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>6.798299666666668</v>
+        <v>7.466036666666668</v>
       </c>
       <c r="H17">
-        <v>20.394899</v>
+        <v>22.39811</v>
       </c>
       <c r="I17">
-        <v>0.1926830655017586</v>
+        <v>0.09245873245405202</v>
       </c>
       <c r="J17">
-        <v>0.2202455436260365</v>
+        <v>0.106589073045193</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>25.708558</v>
+        <v>31.770234</v>
       </c>
       <c r="N17">
-        <v>51.417116</v>
+        <v>63.540468</v>
       </c>
       <c r="O17">
-        <v>0.09514503664207198</v>
+        <v>0.1149214658940947</v>
       </c>
       <c r="P17">
-        <v>0.0667829632560165</v>
+        <v>0.08177555817559162</v>
       </c>
       <c r="Q17">
-        <v>174.7744812818807</v>
+        <v>237.1977319525801</v>
       </c>
       <c r="R17">
-        <v>1048.646887691284</v>
+        <v>1423.18639171548</v>
       </c>
       <c r="S17">
-        <v>0.01833283732747158</v>
+        <v>0.01062549306832956</v>
       </c>
       <c r="T17">
-        <v>0.01470865004727898</v>
+        <v>0.008716380943689565</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>6.798299666666668</v>
+        <v>7.466036666666668</v>
       </c>
       <c r="H18">
-        <v>20.394899</v>
+        <v>22.39811</v>
       </c>
       <c r="I18">
-        <v>0.1926830655017586</v>
+        <v>0.09245873245405202</v>
       </c>
       <c r="J18">
-        <v>0.2202455436260365</v>
+        <v>0.106589073045193</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>11.726012</v>
+        <v>31.46548433333334</v>
       </c>
       <c r="N18">
-        <v>35.178036</v>
+        <v>94.39645300000001</v>
       </c>
       <c r="O18">
-        <v>0.04339690469630291</v>
+        <v>0.1138191045320704</v>
       </c>
       <c r="P18">
-        <v>0.04569088405516221</v>
+        <v>0.121486713536183</v>
       </c>
       <c r="Q18">
-        <v>79.71694347092934</v>
+        <v>234.9224597670923</v>
       </c>
       <c r="R18">
-        <v>717.452491238364</v>
+        <v>2114.30213790383</v>
       </c>
       <c r="S18">
-        <v>0.008361848630171311</v>
+        <v>0.01052357013409048</v>
       </c>
       <c r="T18">
-        <v>0.0100632135974834</v>
+        <v>0.01294915618312864</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>6.798299666666668</v>
+        <v>7.466036666666668</v>
       </c>
       <c r="H19">
-        <v>20.394899</v>
+        <v>22.39811</v>
       </c>
       <c r="I19">
-        <v>0.1926830655017586</v>
+        <v>0.09245873245405202</v>
       </c>
       <c r="J19">
-        <v>0.2202455436260365</v>
+        <v>0.106589073045193</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>79.34548433333335</v>
+        <v>74.85037233333333</v>
       </c>
       <c r="N19">
-        <v>238.036453</v>
+        <v>224.551117</v>
       </c>
       <c r="O19">
-        <v>0.2936504262229702</v>
+        <v>0.2707538921893195</v>
       </c>
       <c r="P19">
-        <v>0.3091729161606711</v>
+        <v>0.2889936682812531</v>
       </c>
       <c r="Q19">
-        <v>539.4143796948053</v>
+        <v>558.835624354319</v>
       </c>
       <c r="R19">
-        <v>4854.729417253248</v>
+        <v>5029.52061918887</v>
       </c>
       <c r="S19">
-        <v>0.0565814643105399</v>
+        <v>0.02503356167882554</v>
       </c>
       <c r="T19">
-        <v>0.06809395699425402</v>
+        <v>0.03080356721802876</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>8.750795</v>
+        <v>15.2071285</v>
       </c>
       <c r="H20">
-        <v>17.50159</v>
+        <v>30.414257</v>
       </c>
       <c r="I20">
-        <v>0.2480223127622444</v>
+        <v>0.1883237235698756</v>
       </c>
       <c r="J20">
-        <v>0.1890005537105138</v>
+        <v>0.1447366523777351</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>14.989415</v>
+        <v>20.574342</v>
       </c>
       <c r="N20">
-        <v>29.97883</v>
+        <v>41.148684</v>
       </c>
       <c r="O20">
-        <v>0.05547446260572933</v>
+        <v>0.07442291871210138</v>
       </c>
       <c r="P20">
-        <v>0.03893791130463959</v>
+        <v>0.05295769307665528</v>
       </c>
       <c r="Q20">
-        <v>131.169297834925</v>
+        <v>312.876662596947</v>
       </c>
       <c r="R20">
-        <v>524.6771913397</v>
+        <v>1251.506650387788</v>
       </c>
       <c r="S20">
-        <v>0.01375890451471563</v>
+        <v>0.01401560117080111</v>
       </c>
       <c r="T20">
-        <v>0.007359286796907756</v>
+        <v>0.007664919213562643</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>8.750795</v>
+        <v>15.2071285</v>
       </c>
       <c r="H21">
-        <v>17.50159</v>
+        <v>30.414257</v>
       </c>
       <c r="I21">
-        <v>0.2480223127622444</v>
+        <v>0.1883237235698756</v>
       </c>
       <c r="J21">
-        <v>0.1890005537105138</v>
+        <v>0.1447366523777351</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>174.766479</v>
       </c>
       <c r="O21">
-        <v>0.2155982850569436</v>
+        <v>0.2107257583291067</v>
       </c>
       <c r="P21">
-        <v>0.2269949046819425</v>
+        <v>0.2249216416002446</v>
       </c>
       <c r="Q21">
-        <v>509.781876866935</v>
+        <v>885.8987678818505</v>
       </c>
       <c r="R21">
-        <v>3058.69126120161</v>
+        <v>5315.392607291103</v>
       </c>
       <c r="S21">
-        <v>0.05347318528739679</v>
+        <v>0.03968465946062311</v>
       </c>
       <c r="T21">
-        <v>0.04290216267435242</v>
+        <v>0.03255440545252412</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>8.750795</v>
+        <v>15.2071285</v>
       </c>
       <c r="H22">
-        <v>17.50159</v>
+        <v>30.414257</v>
       </c>
       <c r="I22">
-        <v>0.2480223127622444</v>
+        <v>0.1883237235698756</v>
       </c>
       <c r="J22">
-        <v>0.1890005537105138</v>
+        <v>0.1447366523777351</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>80.178917</v>
+        <v>59.53576899999999</v>
       </c>
       <c r="N22">
-        <v>240.536751</v>
+        <v>178.607307</v>
       </c>
       <c r="O22">
-        <v>0.2967348847759819</v>
+        <v>0.2153568603433074</v>
       </c>
       <c r="P22">
-        <v>0.3124204205415681</v>
+        <v>0.2298647253300724</v>
       </c>
       <c r="Q22">
-        <v>701.629265989015</v>
+        <v>905.3680895293164</v>
       </c>
       <c r="R22">
-        <v>4209.775595934089</v>
+        <v>5432.208537175899</v>
       </c>
       <c r="S22">
-        <v>0.07359687239937714</v>
+        <v>0.04055680583616934</v>
       </c>
       <c r="T22">
-        <v>0.05904763247282794</v>
+        <v>0.03326985084400224</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>8.750795</v>
+        <v>15.2071285</v>
       </c>
       <c r="H23">
-        <v>17.50159</v>
+        <v>30.414257</v>
       </c>
       <c r="I23">
-        <v>0.2480223127622444</v>
+        <v>0.1883237235698756</v>
       </c>
       <c r="J23">
-        <v>0.1890005537105138</v>
+        <v>0.1447366523777351</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>25.708558</v>
+        <v>31.770234</v>
       </c>
       <c r="N23">
-        <v>51.417116</v>
+        <v>63.540468</v>
       </c>
       <c r="O23">
-        <v>0.09514503664207198</v>
+        <v>0.1149214658940947</v>
       </c>
       <c r="P23">
-        <v>0.0667829632560165</v>
+        <v>0.08177555817559162</v>
       </c>
       <c r="Q23">
-        <v>224.97032080361</v>
+        <v>483.134030913069</v>
       </c>
       <c r="R23">
-        <v>899.88128321444</v>
+        <v>1932.536123652276</v>
       </c>
       <c r="S23">
-        <v>0.02359809203581518</v>
+        <v>0.02164243837528437</v>
       </c>
       <c r="T23">
-        <v>0.01262201703381602</v>
+        <v>0.01183592053665586</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>8.750795</v>
+        <v>15.2071285</v>
       </c>
       <c r="H24">
-        <v>17.50159</v>
+        <v>30.414257</v>
       </c>
       <c r="I24">
-        <v>0.2480223127622444</v>
+        <v>0.1883237235698756</v>
       </c>
       <c r="J24">
-        <v>0.1890005537105138</v>
+        <v>0.1447366523777351</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>11.726012</v>
+        <v>31.46548433333334</v>
       </c>
       <c r="N24">
-        <v>35.178036</v>
+        <v>94.39645300000001</v>
       </c>
       <c r="O24">
-        <v>0.04339690469630291</v>
+        <v>0.1138191045320704</v>
       </c>
       <c r="P24">
-        <v>0.04569088405516221</v>
+        <v>0.121486713536183</v>
       </c>
       <c r="Q24">
-        <v>102.61192717954</v>
+        <v>478.4996635717368</v>
       </c>
       <c r="R24">
-        <v>615.67156307724</v>
+        <v>2870.997981430421</v>
       </c>
       <c r="S24">
-        <v>0.01076340066949975</v>
+        <v>0.02143483757886841</v>
       </c>
       <c r="T24">
-        <v>0.008635602385948543</v>
+        <v>0.01758358022559999</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>8.750795</v>
+        <v>15.2071285</v>
       </c>
       <c r="H25">
-        <v>17.50159</v>
+        <v>30.414257</v>
       </c>
       <c r="I25">
-        <v>0.2480223127622444</v>
+        <v>0.1883237235698756</v>
       </c>
       <c r="J25">
-        <v>0.1890005537105138</v>
+        <v>0.1447366523777351</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>79.34548433333335</v>
+        <v>74.85037233333333</v>
       </c>
       <c r="N25">
-        <v>238.036453</v>
+        <v>224.551117</v>
       </c>
       <c r="O25">
-        <v>0.2936504262229702</v>
+        <v>0.2707538921893195</v>
       </c>
       <c r="P25">
-        <v>0.3091729161606711</v>
+        <v>0.2889936682812531</v>
       </c>
       <c r="Q25">
-        <v>694.3360675767118</v>
+        <v>1138.259230345845</v>
       </c>
       <c r="R25">
-        <v>4166.01640546027</v>
+        <v>6829.555382075068</v>
       </c>
       <c r="S25">
-        <v>0.07283185785543987</v>
+        <v>0.05098938114812932</v>
       </c>
       <c r="T25">
-        <v>0.05843385234666109</v>
+        <v>0.04182797610539022</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>6.279227333333332</v>
+        <v>35.389713</v>
       </c>
       <c r="H26">
-        <v>18.837682</v>
+        <v>106.169139</v>
       </c>
       <c r="I26">
-        <v>0.1779710855497396</v>
+        <v>0.4382630506626701</v>
       </c>
       <c r="J26">
-        <v>0.2034290786507156</v>
+        <v>0.5052421883817986</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>14.989415</v>
+        <v>20.574342</v>
       </c>
       <c r="N26">
-        <v>29.97883</v>
+        <v>41.148684</v>
       </c>
       <c r="O26">
-        <v>0.05547446260572933</v>
+        <v>0.07442291871210138</v>
       </c>
       <c r="P26">
-        <v>0.03893791130463959</v>
+        <v>0.05295769307665528</v>
       </c>
       <c r="Q26">
-        <v>94.12194437867666</v>
+        <v>728.1200585438461</v>
       </c>
       <c r="R26">
-        <v>564.73166627206</v>
+        <v>4368.720351263077</v>
       </c>
       <c r="S26">
-        <v>0.009872850330230084</v>
+        <v>0.03261681539398547</v>
       </c>
       <c r="T26">
-        <v>0.007921103421286116</v>
+        <v>0.02675646074170094</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>6.279227333333332</v>
+        <v>35.389713</v>
       </c>
       <c r="H27">
-        <v>18.837682</v>
+        <v>106.169139</v>
       </c>
       <c r="I27">
-        <v>0.1779710855497396</v>
+        <v>0.4382630506626701</v>
       </c>
       <c r="J27">
-        <v>0.2034290786507156</v>
+        <v>0.5052421883817986</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>174.766479</v>
       </c>
       <c r="O27">
-        <v>0.2155982850569436</v>
+        <v>0.2107257583291067</v>
       </c>
       <c r="P27">
-        <v>0.2269949046819425</v>
+        <v>0.2249216416002446</v>
       </c>
       <c r="Q27">
-        <v>365.7994839624086</v>
+        <v>2061.645177943509</v>
       </c>
       <c r="R27">
-        <v>3292.195355661678</v>
+        <v>18554.80660149158</v>
       </c>
       <c r="S27">
-        <v>0.03837026083424645</v>
+        <v>0.09235331369851889</v>
       </c>
       <c r="T27">
-        <v>0.04617736431785457</v>
+        <v>0.1136399024165342</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>6.279227333333332</v>
+        <v>35.389713</v>
       </c>
       <c r="H28">
-        <v>18.837682</v>
+        <v>106.169139</v>
       </c>
       <c r="I28">
-        <v>0.1779710855497396</v>
+        <v>0.4382630506626701</v>
       </c>
       <c r="J28">
-        <v>0.2034290786507156</v>
+        <v>0.5052421883817986</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>80.178917</v>
+        <v>59.53576899999999</v>
       </c>
       <c r="N28">
-        <v>240.536751</v>
+        <v>178.607307</v>
       </c>
       <c r="O28">
-        <v>0.2967348847759819</v>
+        <v>0.2153568603433074</v>
       </c>
       <c r="P28">
-        <v>0.3124204205415681</v>
+        <v>0.2298647253300724</v>
       </c>
       <c r="Q28">
-        <v>503.4616471834645</v>
+        <v>2106.953778144297</v>
       </c>
       <c r="R28">
-        <v>4531.154824651181</v>
+        <v>18962.58400329867</v>
       </c>
       <c r="S28">
-        <v>0.0528102295640584</v>
+        <v>0.09438295459519251</v>
       </c>
       <c r="T28">
-        <v>0.06355539830244031</v>
+        <v>0.1161373568575468</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>6.279227333333332</v>
+        <v>35.389713</v>
       </c>
       <c r="H29">
-        <v>18.837682</v>
+        <v>106.169139</v>
       </c>
       <c r="I29">
-        <v>0.1779710855497396</v>
+        <v>0.4382630506626701</v>
       </c>
       <c r="J29">
-        <v>0.2034290786507156</v>
+        <v>0.5052421883817986</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>25.708558</v>
+        <v>31.770234</v>
       </c>
       <c r="N29">
-        <v>51.417116</v>
+        <v>63.540468</v>
       </c>
       <c r="O29">
-        <v>0.09514503664207198</v>
+        <v>0.1149214658940947</v>
       </c>
       <c r="P29">
-        <v>0.0667829632560165</v>
+        <v>0.08177555817559162</v>
       </c>
       <c r="Q29">
-        <v>161.4298800941853</v>
+        <v>1124.339463202842</v>
       </c>
       <c r="R29">
-        <v>968.5792805651118</v>
+        <v>6746.036779217053</v>
       </c>
       <c r="S29">
-        <v>0.0169330654558593</v>
+        <v>0.05036583222937192</v>
       </c>
       <c r="T29">
-        <v>0.01358559668473603</v>
+        <v>0.04131646196877899</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>6.279227333333332</v>
+        <v>35.389713</v>
       </c>
       <c r="H30">
-        <v>18.837682</v>
+        <v>106.169139</v>
       </c>
       <c r="I30">
-        <v>0.1779710855497396</v>
+        <v>0.4382630506626701</v>
       </c>
       <c r="J30">
-        <v>0.2034290786507156</v>
+        <v>0.5052421883817986</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>11.726012</v>
+        <v>31.46548433333334</v>
       </c>
       <c r="N30">
-        <v>35.178036</v>
+        <v>94.39645300000001</v>
       </c>
       <c r="O30">
-        <v>0.04339690469630291</v>
+        <v>0.1138191045320704</v>
       </c>
       <c r="P30">
-        <v>0.04569088405516221</v>
+        <v>0.121486713536183</v>
       </c>
       <c r="Q30">
-        <v>73.63029506139465</v>
+        <v>1113.554459962663</v>
       </c>
       <c r="R30">
-        <v>662.6726555525519</v>
+        <v>10021.99013966397</v>
       </c>
       <c r="S30">
-        <v>0.007723394238299621</v>
+        <v>0.04988270797591851</v>
       </c>
       <c r="T30">
-        <v>0.009294854446078322</v>
+        <v>0.06138021300633375</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>6.279227333333332</v>
+        <v>35.389713</v>
       </c>
       <c r="H31">
-        <v>18.837682</v>
+        <v>106.169139</v>
       </c>
       <c r="I31">
-        <v>0.1779710855497396</v>
+        <v>0.4382630506626701</v>
       </c>
       <c r="J31">
-        <v>0.2034290786507156</v>
+        <v>0.5052421883817986</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>79.34548433333335</v>
+        <v>74.85037233333333</v>
       </c>
       <c r="N31">
-        <v>238.036453</v>
+        <v>224.551117</v>
       </c>
       <c r="O31">
-        <v>0.2936504262229702</v>
+        <v>0.2707538921893195</v>
       </c>
       <c r="P31">
-        <v>0.3091729161606711</v>
+        <v>0.2889936682812531</v>
       </c>
       <c r="Q31">
-        <v>498.2283340024384</v>
+        <v>2648.933194819807</v>
       </c>
       <c r="R31">
-        <v>4484.055006021946</v>
+        <v>23840.39875337826</v>
       </c>
       <c r="S31">
-        <v>0.05226128512704572</v>
+        <v>0.1186614267696829</v>
       </c>
       <c r="T31">
-        <v>0.06289476147832028</v>
+        <v>0.1460117933909039</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>8.495532000000001</v>
+        <v>5.316425333333333</v>
       </c>
       <c r="H32">
-        <v>25.486596</v>
+        <v>15.949276</v>
       </c>
       <c r="I32">
-        <v>0.2407874364312792</v>
+        <v>0.06583813734818843</v>
       </c>
       <c r="J32">
-        <v>0.275231036505607</v>
+        <v>0.07590008909599709</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>14.989415</v>
+        <v>20.574342</v>
       </c>
       <c r="N32">
-        <v>29.97883</v>
+        <v>41.148684</v>
       </c>
       <c r="O32">
-        <v>0.05547446260572933</v>
+        <v>0.07442291871210138</v>
       </c>
       <c r="P32">
-        <v>0.03893791130463959</v>
+        <v>0.05295769307665528</v>
       </c>
       <c r="Q32">
-        <v>127.34305479378</v>
+        <v>109.381953025464</v>
       </c>
       <c r="R32">
-        <v>764.0583287626802</v>
+        <v>656.291718152784</v>
       </c>
       <c r="S32">
-        <v>0.01335755363823642</v>
+        <v>0.004899866344020393</v>
       </c>
       <c r="T32">
-        <v>0.01071692168773935</v>
+        <v>0.004019493622836604</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>8.495532000000001</v>
+        <v>5.316425333333333</v>
       </c>
       <c r="H33">
-        <v>25.486596</v>
+        <v>15.949276</v>
       </c>
       <c r="I33">
-        <v>0.2407874364312792</v>
+        <v>0.06583813734818843</v>
       </c>
       <c r="J33">
-        <v>0.275231036505607</v>
+        <v>0.07590008909599709</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>174.766479</v>
       </c>
       <c r="O33">
-        <v>0.2155982850569436</v>
+        <v>0.2107257583291067</v>
       </c>
       <c r="P33">
-        <v>0.2269949046819425</v>
+        <v>0.2249216416002446</v>
       </c>
       <c r="Q33">
-        <v>494.911404957276</v>
+        <v>309.7109787910227</v>
       </c>
       <c r="R33">
-        <v>4454.202644615484</v>
+        <v>2787.398809119204</v>
       </c>
       <c r="S33">
-        <v>0.05191335835784162</v>
+        <v>0.01387379141967289</v>
       </c>
       <c r="T33">
-        <v>0.06247604289710249</v>
+        <v>0.01707157263707649</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>8.495532000000001</v>
+        <v>5.316425333333333</v>
       </c>
       <c r="H34">
-        <v>25.486596</v>
+        <v>15.949276</v>
       </c>
       <c r="I34">
-        <v>0.2407874364312792</v>
+        <v>0.06583813734818843</v>
       </c>
       <c r="J34">
-        <v>0.275231036505607</v>
+        <v>0.07590008909599709</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>80.178917</v>
+        <v>59.53576899999999</v>
       </c>
       <c r="N34">
-        <v>240.536751</v>
+        <v>178.607307</v>
       </c>
       <c r="O34">
-        <v>0.2967348847759819</v>
+        <v>0.2153568603433074</v>
       </c>
       <c r="P34">
-        <v>0.3124204205415681</v>
+        <v>0.2298647253300724</v>
       </c>
       <c r="Q34">
-        <v>681.162555098844</v>
+        <v>316.5174705510813</v>
       </c>
       <c r="R34">
-        <v>6130.462995889596</v>
+        <v>2848.657234959732</v>
       </c>
       <c r="S34">
-        <v>0.0714500322049397</v>
+        <v>0.01417869455015731</v>
       </c>
       <c r="T34">
-        <v>0.08598779617117341</v>
+        <v>0.01744675313257939</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>8.495532000000001</v>
+        <v>5.316425333333333</v>
       </c>
       <c r="H35">
-        <v>25.486596</v>
+        <v>15.949276</v>
       </c>
       <c r="I35">
-        <v>0.2407874364312792</v>
+        <v>0.06583813734818843</v>
       </c>
       <c r="J35">
-        <v>0.275231036505607</v>
+        <v>0.07590008909599709</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>25.708558</v>
+        <v>31.770234</v>
       </c>
       <c r="N35">
-        <v>51.417116</v>
+        <v>63.540468</v>
       </c>
       <c r="O35">
-        <v>0.09514503664207198</v>
+        <v>0.1149214658940947</v>
       </c>
       <c r="P35">
-        <v>0.0667829632560165</v>
+        <v>0.08177555817559162</v>
       </c>
       <c r="Q35">
-        <v>218.407877162856</v>
+        <v>168.904076883528</v>
       </c>
       <c r="R35">
-        <v>1310.447262977136</v>
+        <v>1013.424461301168</v>
       </c>
       <c r="S35">
-        <v>0.02290972946220464</v>
+        <v>0.007566215255790557</v>
       </c>
       <c r="T35">
-        <v>0.01838074419786929</v>
+        <v>0.006206772151402297</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>8.495532000000001</v>
+        <v>5.316425333333333</v>
       </c>
       <c r="H36">
-        <v>25.486596</v>
+        <v>15.949276</v>
       </c>
       <c r="I36">
-        <v>0.2407874364312792</v>
+        <v>0.06583813734818843</v>
       </c>
       <c r="J36">
-        <v>0.275231036505607</v>
+        <v>0.07590008909599709</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>11.726012</v>
+        <v>31.46548433333334</v>
       </c>
       <c r="N36">
-        <v>35.178036</v>
+        <v>94.39645300000001</v>
       </c>
       <c r="O36">
-        <v>0.04339690469630291</v>
+        <v>0.1138191045320704</v>
       </c>
       <c r="P36">
-        <v>0.04569088405516221</v>
+        <v>0.121486713536183</v>
       </c>
       <c r="Q36">
-        <v>99.61871017838401</v>
+        <v>167.2838980353364</v>
       </c>
       <c r="R36">
-        <v>896.5683916054561</v>
+        <v>1505.555082318028</v>
       </c>
       <c r="S36">
-        <v>0.01044942943087532</v>
+        <v>0.007493637837030266</v>
       </c>
       <c r="T36">
-        <v>0.01257554937735981</v>
+        <v>0.009220852381376161</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>8.495532000000001</v>
+        <v>5.316425333333333</v>
       </c>
       <c r="H37">
-        <v>25.486596</v>
+        <v>15.949276</v>
       </c>
       <c r="I37">
-        <v>0.2407874364312792</v>
+        <v>0.06583813734818843</v>
       </c>
       <c r="J37">
-        <v>0.275231036505607</v>
+        <v>0.07590008909599709</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>79.34548433333335</v>
+        <v>74.85037233333333</v>
       </c>
       <c r="N37">
-        <v>238.036453</v>
+        <v>224.551117</v>
       </c>
       <c r="O37">
-        <v>0.2936504262229702</v>
+        <v>0.2707538921893195</v>
       </c>
       <c r="P37">
-        <v>0.3091729161606711</v>
+        <v>0.2889936682812531</v>
       </c>
       <c r="Q37">
-        <v>674.0821012093321</v>
+        <v>397.9364156823657</v>
       </c>
       <c r="R37">
-        <v>6066.738910883989</v>
+        <v>3581.427741141291</v>
       </c>
       <c r="S37">
-        <v>0.07070733333718146</v>
+        <v>0.01782593194151702</v>
       </c>
       <c r="T37">
-        <v>0.08509398217436263</v>
+        <v>0.02193464517072614</v>
       </c>
     </row>
   </sheetData>
